--- a/output/1Y_P39_KFSDIV.xlsx
+++ b/output/1Y_P39_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.8711</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.1252</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="F3" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="H3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0183</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>14.1934</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E4" s="1">
-        <v>1428.8779</v>
+        <v>1426.0204</v>
       </c>
       <c r="F4" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="H4" s="1">
-        <v>20280.6361</v>
+        <v>20199.5792</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20280.6361</v>
+        <v>20199.5792</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.997</v>
+        <v>14.025</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0048</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>14.1176</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E5" s="1">
-        <v>2133.4308</v>
+        <v>2129.1663</v>
       </c>
       <c r="F5" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="H5" s="1">
-        <v>30118.922</v>
+        <v>29998.6755</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30118.922</v>
+        <v>29998.6755</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.0619</v>
+        <v>14.09</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>642.9951</v>
+        <v>641.7092</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9357.0049</v>
+        <v>-9358.290800000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0053</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>15.3311</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E6" s="1">
-        <v>2841.7665</v>
+        <v>2836.0849</v>
       </c>
       <c r="F6" s="1">
-        <v>657.5115</v>
+        <v>656.187</v>
       </c>
       <c r="H6" s="1">
-        <v>43567.4056</v>
+        <v>43393.2335</v>
       </c>
       <c r="I6" s="1">
-        <v>642.9951</v>
+        <v>641.7092</v>
       </c>
       <c r="J6" s="1">
-        <v>44210.4007</v>
+        <v>44034.9426</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.0758</v>
+        <v>14.104</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10080.3744</v>
+        <v>-10080.2136</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.102</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>15.3637</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E7" s="1">
-        <v>3499.2779</v>
+        <v>3492.2719</v>
       </c>
       <c r="F7" s="1">
-        <v>656.1163</v>
+        <v>654.7932</v>
       </c>
       <c r="H7" s="1">
-        <v>53761.8565</v>
+        <v>53547.0053</v>
       </c>
       <c r="I7" s="1">
-        <v>562.6207000000001</v>
+        <v>561.4955</v>
       </c>
       <c r="J7" s="1">
-        <v>54324.4772</v>
+        <v>54108.5008</v>
       </c>
       <c r="K7" s="1">
-        <v>50080.3744</v>
+        <v>50080.2136</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3116</v>
+        <v>14.3403</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10080.3744</v>
+        <v>-10080.2136</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0021</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>14.6447</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E8" s="1">
-        <v>4155.3943</v>
+        <v>4147.0651</v>
       </c>
       <c r="F8" s="1">
-        <v>688.3292</v>
+        <v>686.9438</v>
       </c>
       <c r="H8" s="1">
-        <v>60854.5024</v>
+        <v>60611.0152</v>
       </c>
       <c r="I8" s="1">
-        <v>482.2463</v>
+        <v>481.2819</v>
       </c>
       <c r="J8" s="1">
-        <v>61336.7487</v>
+        <v>61092.2971</v>
       </c>
       <c r="K8" s="1">
-        <v>60160.7488</v>
+        <v>60160.4273</v>
       </c>
       <c r="L8" s="1">
-        <v>14.4777</v>
+        <v>14.5067</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>3149.3501</v>
+        <v>3143.0447</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6931.0242</v>
+        <v>-6937.1689</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0464</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>15.486</v>
       </c>
       <c r="C9" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D9" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E9" s="1">
-        <v>4843.7234</v>
+        <v>4834.0089</v>
       </c>
       <c r="F9" s="1">
-        <v>691.6082</v>
+        <v>690.1349</v>
       </c>
       <c r="H9" s="1">
-        <v>75009.9013</v>
+        <v>74709.6079</v>
       </c>
       <c r="I9" s="1">
-        <v>3551.2221</v>
+        <v>3544.113</v>
       </c>
       <c r="J9" s="1">
-        <v>78561.1234</v>
+        <v>78253.7208</v>
       </c>
       <c r="K9" s="1">
-        <v>70241.1232</v>
+        <v>70240.6409</v>
       </c>
       <c r="L9" s="1">
-        <v>14.5015</v>
+        <v>14.5305</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10710.2444</v>
+        <v>-10708.8226</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1013</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>16.1958</v>
       </c>
       <c r="C10" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D10" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E10" s="1">
-        <v>5535.3316</v>
+        <v>5524.1438</v>
       </c>
       <c r="F10" s="1">
-        <v>661.2976</v>
+        <v>659.8896999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>89648.57060000001</v>
+        <v>89288.94560000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2840.9777</v>
+        <v>2835.2904</v>
       </c>
       <c r="J10" s="1">
-        <v>92489.5482</v>
+        <v>92124.2359</v>
       </c>
       <c r="K10" s="1">
-        <v>80951.3676</v>
+        <v>80949.4635</v>
       </c>
       <c r="L10" s="1">
-        <v>14.6245</v>
+        <v>14.6538</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10710.2444</v>
+        <v>-10708.8226</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0444</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>16.4264</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E11" s="1">
-        <v>6196.6293</v>
+        <v>6184.0335</v>
       </c>
       <c r="F11" s="1">
-        <v>652.0141</v>
+        <v>650.6244</v>
       </c>
       <c r="H11" s="1">
-        <v>101788.3112</v>
+        <v>101378.5718</v>
       </c>
       <c r="I11" s="1">
-        <v>2130.7332</v>
+        <v>2126.4678</v>
       </c>
       <c r="J11" s="1">
-        <v>103919.0445</v>
+        <v>103505.0396</v>
       </c>
       <c r="K11" s="1">
-        <v>91661.61199999999</v>
+        <v>91658.2861</v>
       </c>
       <c r="L11" s="1">
-        <v>14.7922</v>
+        <v>14.8218</v>
       </c>
       <c r="M11" s="1">
         <v>0.75</v>
       </c>
       <c r="N11" s="1">
-        <v>3736.3489</v>
+        <v>3728.7971</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6973.8956</v>
+        <v>-6980.0255</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0139</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>17.107</v>
       </c>
       <c r="C12" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D12" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E12" s="1">
-        <v>6848.6434</v>
+        <v>6834.6579</v>
       </c>
       <c r="F12" s="1">
-        <v>735.2791</v>
+        <v>733.5045</v>
       </c>
       <c r="H12" s="1">
-        <v>117159.7423</v>
+        <v>116686.7481</v>
       </c>
       <c r="I12" s="1">
-        <v>5156.8377</v>
+        <v>5146.4422</v>
       </c>
       <c r="J12" s="1">
-        <v>122316.58</v>
+        <v>121833.1903</v>
       </c>
       <c r="K12" s="1">
-        <v>102371.8564</v>
+        <v>102367.1087</v>
       </c>
       <c r="L12" s="1">
-        <v>14.9478</v>
+        <v>14.9776</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12578.4188</v>
+        <v>-12573.2211</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0737</v>
+        <v>0.07340000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>16.8894</v>
       </c>
       <c r="C13" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D13" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E13" s="1">
-        <v>7583.9224</v>
+        <v>7568.1625</v>
       </c>
       <c r="F13" s="1">
-        <v>744.7523</v>
+        <v>742.9577</v>
       </c>
       <c r="H13" s="1">
-        <v>128087.1413</v>
+        <v>127565.9192</v>
       </c>
       <c r="I13" s="1">
-        <v>2578.4188</v>
+        <v>2573.2211</v>
       </c>
       <c r="J13" s="1">
-        <v>130665.5601</v>
+        <v>130139.1403</v>
       </c>
       <c r="K13" s="1">
-        <v>114950.2752</v>
+        <v>114940.3298</v>
       </c>
       <c r="L13" s="1">
-        <v>15.1571</v>
+        <v>15.1873</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>6163.779</v>
+        <v>6151.1921</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6414.6398</v>
+        <v>-6422.029</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0125</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>16.4004</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E14" s="1">
-        <v>8328.6747</v>
+        <v>8311.1201</v>
       </c>
       <c r="F14" s="1">
-        <v>-8328.6747</v>
+        <v>-8311.1201</v>
       </c>
       <c r="H14" s="1">
-        <v>136593.5966</v>
+        <v>136033.0898</v>
       </c>
       <c r="I14" s="1">
-        <v>6163.779</v>
+        <v>6151.1921</v>
       </c>
       <c r="J14" s="1">
-        <v>142757.3756</v>
+        <v>142184.2819</v>
       </c>
       <c r="K14" s="1">
-        <v>127528.6941</v>
+        <v>127513.551</v>
       </c>
       <c r="L14" s="1">
-        <v>15.312</v>
+        <v>15.3425</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136593.5966</v>
+        <v>136033.0898</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0149</v>
+        <v>0.0146</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1386,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>13.8711</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.1252</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="F3" s="1">
-        <v>694.9858</v>
+        <v>699.2602000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9816.813399999999</v>
+        <v>-9896.9789</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0183</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>14.1934</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E4" s="1">
-        <v>1415.9092</v>
+        <v>1418.7416</v>
       </c>
       <c r="F4" s="1">
-        <v>697.7492999999999</v>
+        <v>699.1546</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20096.565</v>
+        <v>20096.4744</v>
       </c>
       <c r="I4" s="1">
-        <v>183.1866</v>
+        <v>103.0211</v>
       </c>
       <c r="J4" s="1">
-        <v>20279.7516</v>
+        <v>20199.4955</v>
       </c>
       <c r="K4" s="1">
-        <v>19816.8134</v>
+        <v>19896.9789</v>
       </c>
       <c r="L4" s="1">
-        <v>13.9958</v>
+        <v>14.0244</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9903.434999999999</v>
+        <v>-9943.2376</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0048</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>14.1176</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E5" s="1">
-        <v>2113.6585</v>
+        <v>2117.8962</v>
       </c>
       <c r="F5" s="1">
-        <v>719.6843</v>
+        <v>718.2140000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29839.7847</v>
+        <v>29839.887</v>
       </c>
       <c r="I5" s="1">
-        <v>279.7516</v>
+        <v>159.7835</v>
       </c>
       <c r="J5" s="1">
-        <v>30119.5363</v>
+        <v>29999.6706</v>
       </c>
       <c r="K5" s="1">
-        <v>29720.2484</v>
+        <v>29840.2165</v>
       </c>
       <c r="L5" s="1">
-        <v>14.061</v>
+        <v>14.0896</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>637.1591</v>
+        <v>638.4337</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9523.056200000001</v>
+        <v>-9521.3498</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0053</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>15.3311</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E6" s="1">
-        <v>2833.3428</v>
+        <v>2836.1102</v>
       </c>
       <c r="F6" s="1">
-        <v>428.0018</v>
+        <v>431.7782</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>43438.2615</v>
+        <v>43393.6209</v>
       </c>
       <c r="I6" s="1">
-        <v>756.6953999999999</v>
+        <v>638.4337</v>
       </c>
       <c r="J6" s="1">
-        <v>44194.9569</v>
+        <v>44032.0547</v>
       </c>
       <c r="K6" s="1">
-        <v>39880.4637</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.0754</v>
+        <v>14.1038</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6561.7385</v>
+        <v>-6632.8902</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1016</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>15.3637</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E7" s="1">
-        <v>3261.3446</v>
+        <v>3267.8884</v>
       </c>
       <c r="F7" s="1">
-        <v>643.9647</v>
+        <v>645.2401</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50106.3198</v>
+        <v>50106.5332</v>
       </c>
       <c r="I7" s="1">
-        <v>4194.9569</v>
+        <v>4005.5435</v>
       </c>
       <c r="J7" s="1">
-        <v>54301.2767</v>
+        <v>54112.0766</v>
       </c>
       <c r="K7" s="1">
-        <v>46442.2022</v>
+        <v>46632.8902</v>
       </c>
       <c r="L7" s="1">
-        <v>14.2402</v>
+        <v>14.27</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9893.680200000001</v>
+        <v>-9933.149100000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>14.6447</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E8" s="1">
-        <v>3905.3093</v>
+        <v>3913.1285</v>
       </c>
       <c r="F8" s="1">
-        <v>874.577</v>
+        <v>876.3401</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57192.0826</v>
+        <v>57191.939</v>
       </c>
       <c r="I8" s="1">
-        <v>4301.2767</v>
+        <v>4072.3944</v>
       </c>
       <c r="J8" s="1">
-        <v>61493.3594</v>
+        <v>61264.3333</v>
       </c>
       <c r="K8" s="1">
-        <v>56335.8824</v>
+        <v>56566.0393</v>
       </c>
       <c r="L8" s="1">
-        <v>14.4255</v>
+        <v>14.4555</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>2935.2101</v>
+        <v>2941.0996</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9872.707200000001</v>
+        <v>-9918.315000000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0437</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>15.486</v>
       </c>
       <c r="C9" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D9" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E9" s="1">
-        <v>4779.8862</v>
+        <v>4789.4686</v>
       </c>
       <c r="F9" s="1">
-        <v>386.0701</v>
+        <v>386.8497</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>74021.3183</v>
+        <v>74021.23789999999</v>
       </c>
       <c r="I9" s="1">
-        <v>4428.5695</v>
+        <v>4154.0794</v>
       </c>
       <c r="J9" s="1">
-        <v>78449.8878</v>
+        <v>78175.3172</v>
       </c>
       <c r="K9" s="1">
-        <v>69143.79979999999</v>
+        <v>69425.45389999999</v>
       </c>
       <c r="L9" s="1">
-        <v>14.4656</v>
+        <v>14.4954</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5978.6817</v>
+        <v>-6002.7468</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0973</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>16.1958</v>
       </c>
       <c r="C10" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D10" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E10" s="1">
-        <v>5165.9563</v>
+        <v>5176.3183</v>
       </c>
       <c r="F10" s="1">
-        <v>391.0742</v>
+        <v>391.8171</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>83666.2792</v>
+        <v>83666.9039</v>
       </c>
       <c r="I10" s="1">
-        <v>8449.8878</v>
+        <v>8151.3326</v>
       </c>
       <c r="J10" s="1">
-        <v>92116.167</v>
+        <v>91818.2365</v>
       </c>
       <c r="K10" s="1">
-        <v>75122.48149999999</v>
+        <v>75428.2007</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5418</v>
+        <v>14.5718</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6333.7599</v>
+        <v>-6358.4858</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0415</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>16.4264</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E11" s="1">
-        <v>5557.0306</v>
+        <v>5568.1354</v>
       </c>
       <c r="F11" s="1">
-        <v>530.7306</v>
+        <v>531.806</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91282.007</v>
+        <v>91281.78479999999</v>
       </c>
       <c r="I11" s="1">
-        <v>12116.1279</v>
+        <v>11792.8467</v>
       </c>
       <c r="J11" s="1">
-        <v>103398.1349</v>
+        <v>103074.6315</v>
       </c>
       <c r="K11" s="1">
-        <v>81456.24129999999</v>
+        <v>81786.6866</v>
       </c>
       <c r="L11" s="1">
-        <v>14.6582</v>
+        <v>14.6883</v>
       </c>
       <c r="M11" s="1">
         <v>0.75</v>
       </c>
       <c r="N11" s="1">
-        <v>3487.0205</v>
+        <v>3494.0149</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5230.9725</v>
+        <v>-5259.14</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0126</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>17.107</v>
       </c>
       <c r="C12" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D12" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E12" s="1">
-        <v>6087.7612</v>
+        <v>6099.9414</v>
       </c>
       <c r="F12" s="1">
-        <v>342.3552</v>
+        <v>343.0556</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>104143.3302</v>
+        <v>104143.0802</v>
       </c>
       <c r="I12" s="1">
-        <v>16885.1554</v>
+        <v>16533.7067</v>
       </c>
       <c r="J12" s="1">
-        <v>121028.4856</v>
+        <v>120676.787</v>
       </c>
       <c r="K12" s="1">
-        <v>90174.2344</v>
+        <v>90539.8414</v>
       </c>
       <c r="L12" s="1">
-        <v>14.8124</v>
+        <v>14.8427</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5856.6698</v>
+        <v>-5880.4191</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0673</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>16.8894</v>
       </c>
       <c r="C13" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D13" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E13" s="1">
-        <v>6430.1163</v>
+        <v>6442.997</v>
       </c>
       <c r="F13" s="1">
-        <v>674.9739</v>
+        <v>676.2986</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>108600.1637</v>
+        <v>108600.581</v>
       </c>
       <c r="I13" s="1">
-        <v>21028.4856</v>
+        <v>20653.2877</v>
       </c>
       <c r="J13" s="1">
-        <v>129628.6493</v>
+        <v>129253.8687</v>
       </c>
       <c r="K13" s="1">
-        <v>96030.9041</v>
+        <v>96420.2605</v>
       </c>
       <c r="L13" s="1">
-        <v>14.9346</v>
+        <v>14.9651</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>5478.985</v>
+        <v>5489.9473</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5920.9188</v>
+        <v>-5955.1894</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0107</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>16.4004</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E14" s="1">
-        <v>7105.0902</v>
+        <v>7119.2957</v>
       </c>
       <c r="F14" s="1">
-        <v>-7105.0902</v>
+        <v>-7119.2957</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116526.3214</v>
+        <v>116525.7837</v>
       </c>
       <c r="I14" s="1">
-        <v>25107.5669</v>
+        <v>24698.0982</v>
       </c>
       <c r="J14" s="1">
-        <v>141633.8883</v>
+        <v>141223.8819</v>
       </c>
       <c r="K14" s="1">
-        <v>107430.808</v>
+        <v>107865.3973</v>
       </c>
       <c r="L14" s="1">
-        <v>15.1203</v>
+        <v>15.1511</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116526.3214</v>
+        <v>116525.7837</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0144</v>
+        <v>0.0141</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.8711</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.1252</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="F3" s="1">
-        <v>698.5256000000001</v>
+        <v>702.807</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9866.813399999999</v>
+        <v>-9947.1793</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0183</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>14.1934</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E4" s="1">
-        <v>1419.4489</v>
+        <v>1422.2884</v>
       </c>
       <c r="F4" s="1">
-        <v>704.7954</v>
+        <v>706.2148999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20146.8064</v>
+        <v>20146.7156</v>
       </c>
       <c r="I4" s="1">
-        <v>133.1866</v>
+        <v>52.8207</v>
       </c>
       <c r="J4" s="1">
-        <v>20279.993</v>
+        <v>20199.5363</v>
       </c>
       <c r="K4" s="1">
-        <v>19866.8134</v>
+        <v>19947.1793</v>
       </c>
       <c r="L4" s="1">
-        <v>13.9961</v>
+        <v>14.0247</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10003.4436</v>
+        <v>-10043.6474</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0048</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>14.1176</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E5" s="1">
-        <v>2124.2444</v>
+        <v>2128.5034</v>
       </c>
       <c r="F5" s="1">
-        <v>717.5259</v>
+        <v>707.5671</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29989.2323</v>
+        <v>29989.3351</v>
       </c>
       <c r="I5" s="1">
-        <v>129.743</v>
+        <v>9.173299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>30118.9753</v>
+        <v>29998.5084</v>
       </c>
       <c r="K5" s="1">
-        <v>29870.257</v>
+        <v>29990.8267</v>
       </c>
       <c r="L5" s="1">
-        <v>14.0616</v>
+        <v>14.0901</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>638.752</v>
+        <v>640.0298</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9490.991</v>
+        <v>-9369.1435</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0053</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>15.3311</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E6" s="1">
-        <v>2841.7702</v>
+        <v>2836.0704</v>
       </c>
       <c r="F6" s="1">
-        <v>452.3513</v>
+        <v>464.6607</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>43567.4635</v>
+        <v>43393.0122</v>
       </c>
       <c r="I6" s="1">
-        <v>638.752</v>
+        <v>640.0298</v>
       </c>
       <c r="J6" s="1">
-        <v>44206.2155</v>
+        <v>44033.042</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.0757</v>
+        <v>14.104</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6935.0428</v>
+        <v>-7138.0242</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1019</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>15.3637</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E7" s="1">
-        <v>3294.1215</v>
+        <v>3300.7311</v>
       </c>
       <c r="F7" s="1">
-        <v>660.3308</v>
+        <v>661.6389</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50609.8946</v>
+        <v>50610.1101</v>
       </c>
       <c r="I7" s="1">
-        <v>3703.7092</v>
+        <v>3502.0056</v>
       </c>
       <c r="J7" s="1">
-        <v>54313.6039</v>
+        <v>54112.1156</v>
       </c>
       <c r="K7" s="1">
-        <v>46935.0428</v>
+        <v>47138.0242</v>
       </c>
       <c r="L7" s="1">
-        <v>14.2481</v>
+        <v>14.2811</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10145.1242</v>
+        <v>-10185.5995</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>14.6447</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E8" s="1">
-        <v>3954.4523</v>
+        <v>3962.37</v>
       </c>
       <c r="F8" s="1">
-        <v>897.7327</v>
+        <v>899.5424</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57911.7676</v>
+        <v>57911.6221</v>
       </c>
       <c r="I8" s="1">
-        <v>3558.5851</v>
+        <v>3316.4061</v>
       </c>
       <c r="J8" s="1">
-        <v>61470.3527</v>
+        <v>61228.0282</v>
       </c>
       <c r="K8" s="1">
-        <v>57080.1669</v>
+        <v>57323.6237</v>
       </c>
       <c r="L8" s="1">
-        <v>14.4344</v>
+        <v>14.467</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>2964.7094</v>
+        <v>2970.658</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10182.3169</v>
+        <v>-10229.227</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0442</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>15.486</v>
       </c>
       <c r="C9" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D9" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E9" s="1">
-        <v>4852.185</v>
+        <v>4861.9124</v>
       </c>
       <c r="F9" s="1">
-        <v>405.0853</v>
+        <v>405.9031</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>75140.9371</v>
+        <v>75140.85550000001</v>
       </c>
       <c r="I9" s="1">
-        <v>3376.2681</v>
+        <v>3087.1791</v>
       </c>
       <c r="J9" s="1">
-        <v>78517.2053</v>
+        <v>78228.0346</v>
       </c>
       <c r="K9" s="1">
-        <v>70227.19319999999</v>
+        <v>70523.50870000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.4733</v>
+        <v>14.5053</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6273.1507</v>
+        <v>-6298.3983</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.09859999999999999</v>
+        <v>0.0983</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>16.1958</v>
       </c>
       <c r="C10" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D10" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E10" s="1">
-        <v>5257.2703</v>
+        <v>5267.8155</v>
       </c>
       <c r="F10" s="1">
-        <v>412.2073</v>
+        <v>412.9917</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85145.17260000001</v>
+        <v>85145.8083</v>
       </c>
       <c r="I10" s="1">
-        <v>7103.1174</v>
+        <v>6788.7808</v>
       </c>
       <c r="J10" s="1">
-        <v>92248.28999999999</v>
+        <v>91934.5891</v>
       </c>
       <c r="K10" s="1">
-        <v>76500.344</v>
+        <v>76821.90700000001</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5513</v>
+        <v>14.5833</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6676.0269</v>
+        <v>-6702.1118</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0422</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>16.4264</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E11" s="1">
-        <v>5669.4776</v>
+        <v>5680.8072</v>
       </c>
       <c r="F11" s="1">
-        <v>557.1006</v>
+        <v>558.2291</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>93129.10679999999</v>
+        <v>93128.88009999999</v>
       </c>
       <c r="I11" s="1">
-        <v>10427.0905</v>
+        <v>10086.6689</v>
       </c>
       <c r="J11" s="1">
-        <v>103556.1973</v>
+        <v>103215.549</v>
       </c>
       <c r="K11" s="1">
-        <v>83176.37089999999</v>
+        <v>83524.0189</v>
       </c>
       <c r="L11" s="1">
-        <v>14.6709</v>
+        <v>14.7028</v>
       </c>
       <c r="M11" s="1">
         <v>0.75</v>
       </c>
       <c r="N11" s="1">
-        <v>3548.6575</v>
+        <v>3555.7754</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5602.4999</v>
+        <v>-5632.2842</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0128</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>17.107</v>
       </c>
       <c r="C12" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D12" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E12" s="1">
-        <v>6226.5782</v>
+        <v>6239.0362</v>
       </c>
       <c r="F12" s="1">
-        <v>366.7266</v>
+        <v>367.4762</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>106518.0732</v>
+        <v>106517.8175</v>
       </c>
       <c r="I12" s="1">
-        <v>14824.5906</v>
+        <v>14454.3847</v>
       </c>
       <c r="J12" s="1">
-        <v>121342.6638</v>
+        <v>120972.2022</v>
       </c>
       <c r="K12" s="1">
-        <v>92327.5282</v>
+        <v>92712.0785</v>
       </c>
       <c r="L12" s="1">
-        <v>14.828</v>
+        <v>14.86</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6273.5922</v>
+        <v>-6299.02</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.06859999999999999</v>
+        <v>0.06850000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>16.8894</v>
       </c>
       <c r="C13" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D13" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E13" s="1">
-        <v>6593.3048</v>
+        <v>6606.5124</v>
       </c>
       <c r="F13" s="1">
-        <v>710.4688</v>
+        <v>711.8638999999999</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>111356.3029</v>
+        <v>111356.7309</v>
       </c>
       <c r="I13" s="1">
-        <v>18550.9984</v>
+        <v>18155.3647</v>
       </c>
       <c r="J13" s="1">
-        <v>129907.3014</v>
+        <v>129512.0956</v>
       </c>
       <c r="K13" s="1">
-        <v>98601.1204</v>
+        <v>99011.0986</v>
       </c>
       <c r="L13" s="1">
-        <v>14.9547</v>
+        <v>14.9869</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>5603.9204</v>
+        <v>5615.1326</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6395.4715</v>
+        <v>-6431.8822</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0109</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>16.4004</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E14" s="1">
-        <v>7303.7736</v>
+        <v>7318.3763</v>
       </c>
       <c r="F14" s="1">
-        <v>-7303.7736</v>
+        <v>-7318.3763</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119784.8088</v>
+        <v>119784.2561</v>
       </c>
       <c r="I14" s="1">
-        <v>22155.527</v>
+        <v>21723.4824</v>
       </c>
       <c r="J14" s="1">
-        <v>141940.3358</v>
+        <v>141507.7385</v>
       </c>
       <c r="K14" s="1">
-        <v>110600.5122</v>
+        <v>111058.1134</v>
       </c>
       <c r="L14" s="1">
-        <v>15.1429</v>
+        <v>15.1752</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119784.8088</v>
+        <v>119784.2561</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0145</v>
+        <v>0.0143</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.8711</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.1252</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="F3" s="1">
-        <v>702.0653</v>
+        <v>706.3539</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9916.813399999999</v>
+        <v>-9997.3797</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0183</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>14.1934</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E4" s="1">
-        <v>1422.9887</v>
+        <v>1425.8353</v>
       </c>
       <c r="F4" s="1">
-        <v>710.4138</v>
+        <v>703.3301</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20197.0478</v>
+        <v>20196.9568</v>
       </c>
       <c r="I4" s="1">
-        <v>83.1866</v>
+        <v>2.6203</v>
       </c>
       <c r="J4" s="1">
-        <v>20280.2345</v>
+        <v>20199.5771</v>
       </c>
       <c r="K4" s="1">
-        <v>19916.8134</v>
+        <v>19997.3797</v>
       </c>
       <c r="L4" s="1">
-        <v>13.9965</v>
+        <v>14.025</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10083.1866</v>
+        <v>-10002.6203</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0048</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>14.1176</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E5" s="1">
-        <v>2133.4025</v>
+        <v>2129.1654</v>
       </c>
       <c r="F5" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30118.5225</v>
+        <v>29998.663</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30118.5225</v>
+        <v>29998.663</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.062</v>
+        <v>14.09</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>640.3449000000001</v>
+        <v>641.6259</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9359.6551</v>
+        <v>-9358.374100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0053</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>15.3311</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E6" s="1">
-        <v>2841.7382</v>
+        <v>2836.084</v>
       </c>
       <c r="F6" s="1">
-        <v>485.4889</v>
+        <v>497.819</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>43566.9718</v>
+        <v>43393.2199</v>
       </c>
       <c r="I6" s="1">
-        <v>640.3449000000001</v>
+        <v>641.6259</v>
       </c>
       <c r="J6" s="1">
-        <v>44207.3167</v>
+        <v>44034.8457</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.0759</v>
+        <v>14.104</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7443.0783</v>
+        <v>-7647.3963</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1019</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>15.3637</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E7" s="1">
-        <v>3327.227</v>
+        <v>3333.903</v>
       </c>
       <c r="F7" s="1">
-        <v>677.0266</v>
+        <v>678.3679</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51118.5177</v>
+        <v>51118.7353</v>
       </c>
       <c r="I7" s="1">
-        <v>3197.2666</v>
+        <v>2994.2295</v>
       </c>
       <c r="J7" s="1">
-        <v>54315.7843</v>
+        <v>54112.9649</v>
       </c>
       <c r="K7" s="1">
-        <v>47443.0783</v>
+        <v>47647.3963</v>
       </c>
       <c r="L7" s="1">
-        <v>14.259</v>
+        <v>14.2918</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10401.6329</v>
+        <v>-10443.1349</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.002</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>14.6447</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E8" s="1">
-        <v>4004.2536</v>
+        <v>4012.271</v>
       </c>
       <c r="F8" s="1">
-        <v>873.7382</v>
+        <v>855.3288</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58641.0923</v>
+        <v>58640.945</v>
       </c>
       <c r="I8" s="1">
-        <v>2795.6337</v>
+        <v>2551.0947</v>
       </c>
       <c r="J8" s="1">
-        <v>61436.726</v>
+        <v>61192.0396</v>
       </c>
       <c r="K8" s="1">
-        <v>57844.7112</v>
+        <v>58090.5312</v>
       </c>
       <c r="L8" s="1">
-        <v>14.4458</v>
+        <v>14.4782</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>2994.5043</v>
+        <v>3000.5127</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9801.1294</v>
+        <v>-9550.581899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0448</v>
+        <v>-0.0456</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>15.486</v>
       </c>
       <c r="C9" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D9" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E9" s="1">
-        <v>4877.9918</v>
+        <v>4867.5997</v>
       </c>
       <c r="F9" s="1">
-        <v>472.4348</v>
+        <v>493.5588</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>75540.5805</v>
+        <v>75228.75410000001</v>
       </c>
       <c r="I9" s="1">
-        <v>2994.5043</v>
+        <v>3000.5127</v>
       </c>
       <c r="J9" s="1">
-        <v>78535.0848</v>
+        <v>78229.2668</v>
       </c>
       <c r="K9" s="1">
-        <v>70640.3449</v>
+        <v>70641.6259</v>
       </c>
       <c r="L9" s="1">
-        <v>14.4814</v>
+        <v>14.5126</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7316.1252</v>
+        <v>-7658.5522</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0994</v>
+        <v>0.0988</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>16.1958</v>
       </c>
       <c r="C10" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D10" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E10" s="1">
-        <v>5350.4266</v>
+        <v>5361.1586</v>
       </c>
       <c r="F10" s="1">
-        <v>434.1504</v>
+        <v>434.9779</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>86653.9034</v>
+        <v>86654.55039999999</v>
       </c>
       <c r="I10" s="1">
-        <v>5678.3792</v>
+        <v>5341.9606</v>
       </c>
       <c r="J10" s="1">
-        <v>92332.2825</v>
+        <v>91996.51089999999</v>
       </c>
       <c r="K10" s="1">
-        <v>77956.47010000001</v>
+        <v>78300.1781</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5701</v>
+        <v>14.6051</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7031.4127</v>
+        <v>-7058.9089</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0429</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>16.4264</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E11" s="1">
-        <v>5784.5769</v>
+        <v>5796.1365</v>
       </c>
       <c r="F11" s="1">
-        <v>584.5682</v>
+        <v>585.7519</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>95019.7746</v>
+        <v>95019.5433</v>
       </c>
       <c r="I11" s="1">
-        <v>8646.966399999999</v>
+        <v>8283.0517</v>
       </c>
       <c r="J11" s="1">
-        <v>103666.741</v>
+        <v>103302.595</v>
       </c>
       <c r="K11" s="1">
-        <v>84987.88280000001</v>
+        <v>85359.087</v>
       </c>
       <c r="L11" s="1">
-        <v>14.6922</v>
+        <v>14.7269</v>
       </c>
       <c r="M11" s="1">
         <v>0.75</v>
       </c>
       <c r="N11" s="1">
-        <v>3611.5379</v>
+        <v>3618.782</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5990.8129</v>
+        <v>-6022.284</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.013</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>17.107</v>
       </c>
       <c r="C12" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D12" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E12" s="1">
-        <v>6369.1451</v>
+        <v>6381.8884</v>
       </c>
       <c r="F12" s="1">
-        <v>392.3178</v>
+        <v>393.119</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>108956.9656</v>
+        <v>108956.704</v>
       </c>
       <c r="I12" s="1">
-        <v>12656.1535</v>
+        <v>12260.7677</v>
       </c>
       <c r="J12" s="1">
-        <v>121613.1191</v>
+        <v>121217.4717</v>
       </c>
       <c r="K12" s="1">
-        <v>94590.23360000001</v>
+        <v>95000.15300000001</v>
       </c>
       <c r="L12" s="1">
-        <v>14.8513</v>
+        <v>14.8859</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6711.3811</v>
+        <v>-6738.5713</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0699</v>
@@ -3569,49 +3569,49 @@
         <v>16.8894</v>
       </c>
       <c r="C13" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D13" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E13" s="1">
-        <v>6761.4629</v>
+        <v>6775.0074</v>
       </c>
       <c r="F13" s="1">
-        <v>747.731</v>
+        <v>749.2</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>114196.3762</v>
+        <v>114196.8151</v>
       </c>
       <c r="I13" s="1">
-        <v>15944.7724</v>
+        <v>15522.1964</v>
       </c>
       <c r="J13" s="1">
-        <v>130141.1486</v>
+        <v>129719.0114</v>
       </c>
       <c r="K13" s="1">
-        <v>101301.6147</v>
+        <v>101738.7243</v>
       </c>
       <c r="L13" s="1">
-        <v>14.9822</v>
+        <v>15.0168</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>5732.2306</v>
+        <v>5743.6995</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6896.4981</v>
+        <v>-6935.1615</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0112</v>
+        <v>-0.0114</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>16.4004</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E14" s="1">
-        <v>7509.194</v>
+        <v>7524.2074</v>
       </c>
       <c r="F14" s="1">
-        <v>-7509.194</v>
+        <v>-7524.2074</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123153.7852</v>
+        <v>123153.2169</v>
       </c>
       <c r="I14" s="1">
-        <v>19048.2743</v>
+        <v>18587.0349</v>
       </c>
       <c r="J14" s="1">
-        <v>142202.0595</v>
+        <v>141740.2518</v>
       </c>
       <c r="K14" s="1">
-        <v>113930.3435</v>
+        <v>114417.5853</v>
       </c>
       <c r="L14" s="1">
-        <v>15.1721</v>
+        <v>15.2066</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123153.7852</v>
+        <v>123153.2169</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0147</v>
+        <v>0.0145</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.8711</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.1252</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="F3" s="1">
-        <v>705.6051</v>
+        <v>706.539</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10183.1866</v>
+        <v>10142.5293</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9966.813399999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0183</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>14.1934</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E4" s="1">
-        <v>1426.5285</v>
+        <v>1426.0204</v>
       </c>
       <c r="F4" s="1">
-        <v>706.891</v>
+        <v>703.1459</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20247.2892</v>
+        <v>20199.5792</v>
       </c>
       <c r="I4" s="1">
-        <v>33.1866</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20280.4759</v>
+        <v>20199.5792</v>
       </c>
       <c r="K4" s="1">
-        <v>19966.8134</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.9968</v>
+        <v>14.025</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10033.1866</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0048</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>14.1176</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E5" s="1">
-        <v>2133.4195</v>
+        <v>2129.1663</v>
       </c>
       <c r="F5" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30118.7627</v>
+        <v>29998.6755</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30118.7627</v>
+        <v>29998.6755</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.0619</v>
+        <v>14.09</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>641.9378</v>
+        <v>641.7092</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9358.0622</v>
+        <v>-9358.290800000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0053</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>15.3311</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E6" s="1">
-        <v>2841.7552</v>
+        <v>2836.0849</v>
       </c>
       <c r="F6" s="1">
-        <v>518.9084</v>
+        <v>531.3218000000001</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>43567.2326</v>
+        <v>43393.2335</v>
       </c>
       <c r="I6" s="1">
-        <v>641.9378</v>
+        <v>641.7092</v>
       </c>
       <c r="J6" s="1">
-        <v>44209.1704</v>
+        <v>44034.9426</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.0758</v>
+        <v>14.104</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7955.4367</v>
+        <v>-8162.059</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.102</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>15.3637</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E7" s="1">
-        <v>3360.6636</v>
+        <v>3367.4067</v>
       </c>
       <c r="F7" s="1">
-        <v>694.0569</v>
+        <v>695.4322</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51632.2269</v>
+        <v>51632.4467</v>
       </c>
       <c r="I7" s="1">
-        <v>2686.5011</v>
+        <v>2479.6502</v>
       </c>
       <c r="J7" s="1">
-        <v>54318.728</v>
+        <v>54112.0969</v>
       </c>
       <c r="K7" s="1">
-        <v>47955.4367</v>
+        <v>48162.059</v>
       </c>
       <c r="L7" s="1">
-        <v>14.2696</v>
+        <v>14.3024</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10663.2824</v>
+        <v>-10705.8317</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.002</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>14.6447</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E8" s="1">
-        <v>4054.7205</v>
+        <v>4062.8389</v>
       </c>
       <c r="F8" s="1">
-        <v>820.9945</v>
+        <v>802.3592</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>59380.1653</v>
+        <v>59380.0161</v>
       </c>
       <c r="I8" s="1">
-        <v>2023.2187</v>
+        <v>1773.8186</v>
       </c>
       <c r="J8" s="1">
-        <v>61403.384</v>
+        <v>61153.8346</v>
       </c>
       <c r="K8" s="1">
-        <v>58618.7191</v>
+        <v>58867.8906</v>
       </c>
       <c r="L8" s="1">
-        <v>14.4569</v>
+        <v>14.4893</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>3024.5972</v>
+        <v>3030.666</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8998.621499999999</v>
+        <v>-8743.152599999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0453</v>
+        <v>-0.0461</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>15.486</v>
       </c>
       <c r="C9" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D9" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E9" s="1">
-        <v>4875.715</v>
+        <v>4865.1981</v>
       </c>
       <c r="F9" s="1">
-        <v>569.7448000000001</v>
+        <v>591.1844</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>75505.323</v>
+        <v>75191.6367</v>
       </c>
       <c r="I9" s="1">
-        <v>3024.5972</v>
+        <v>3030.666</v>
       </c>
       <c r="J9" s="1">
-        <v>78529.92019999999</v>
+        <v>78222.3027</v>
       </c>
       <c r="K9" s="1">
-        <v>70641.9378</v>
+        <v>70641.7092</v>
       </c>
       <c r="L9" s="1">
-        <v>14.4885</v>
+        <v>14.5198</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8823.067999999999</v>
+        <v>-9173.407800000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0998</v>
+        <v>0.0993</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>16.1958</v>
       </c>
       <c r="C10" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D10" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E10" s="1">
-        <v>5445.4598</v>
+        <v>5456.3825</v>
       </c>
       <c r="F10" s="1">
-        <v>456.9289</v>
+        <v>457.8012</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>88193.03389999999</v>
+        <v>88193.6924</v>
       </c>
       <c r="I10" s="1">
-        <v>4201.5292</v>
+        <v>3857.2583</v>
       </c>
       <c r="J10" s="1">
-        <v>92394.5631</v>
+        <v>92050.9507</v>
       </c>
       <c r="K10" s="1">
-        <v>79465.0058</v>
+        <v>79815.117</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5929</v>
+        <v>14.6278</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7400.3287</v>
+        <v>-7429.29</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0437</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>16.4264</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E11" s="1">
-        <v>5902.3887</v>
+        <v>5914.1837</v>
       </c>
       <c r="F11" s="1">
-        <v>613.1726</v>
+        <v>614.4138</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96954.99800000001</v>
+        <v>96954.762</v>
       </c>
       <c r="I11" s="1">
-        <v>6801.2005</v>
+        <v>6427.9682</v>
       </c>
       <c r="J11" s="1">
-        <v>103756.1985</v>
+        <v>103382.7302</v>
       </c>
       <c r="K11" s="1">
-        <v>86865.3346</v>
+        <v>87244.40700000001</v>
       </c>
       <c r="L11" s="1">
-        <v>14.717</v>
+        <v>14.7517</v>
       </c>
       <c r="M11" s="1">
         <v>0.75</v>
       </c>
       <c r="N11" s="1">
-        <v>3675.6854</v>
+        <v>3683.0582</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6396.5333</v>
+        <v>-6429.7635</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0133</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>17.107</v>
       </c>
       <c r="C12" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D12" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E12" s="1">
-        <v>6515.5613</v>
+        <v>6528.5975</v>
       </c>
       <c r="F12" s="1">
-        <v>419.1803</v>
+        <v>420.0357</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>111461.7077</v>
+        <v>111461.4401</v>
       </c>
       <c r="I12" s="1">
-        <v>10404.6672</v>
+        <v>9998.2047</v>
       </c>
       <c r="J12" s="1">
-        <v>121866.3749</v>
+        <v>121459.6449</v>
       </c>
       <c r="K12" s="1">
-        <v>96937.55319999999</v>
+        <v>97357.22870000001</v>
       </c>
       <c r="L12" s="1">
-        <v>14.8779</v>
+        <v>14.9124</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7170.9172</v>
+        <v>-7199.9572</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0713</v>
+        <v>0.0712</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>16.8894</v>
       </c>
       <c r="C13" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D13" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E13" s="1">
-        <v>6934.7416</v>
+        <v>6948.6332</v>
       </c>
       <c r="F13" s="1">
-        <v>786.8403</v>
+        <v>788.3868</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>117122.9317</v>
+        <v>117123.3818</v>
       </c>
       <c r="I13" s="1">
-        <v>13233.75</v>
+        <v>12798.2475</v>
       </c>
       <c r="J13" s="1">
-        <v>130356.6817</v>
+        <v>129921.6293</v>
       </c>
       <c r="K13" s="1">
-        <v>104108.4704</v>
+        <v>104557.1859</v>
       </c>
       <c r="L13" s="1">
-        <v>15.0126</v>
+        <v>15.0472</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>5864.0052</v>
+        <v>5875.7378</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7425.2561</v>
+        <v>-7466.2897</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0114</v>
+        <v>-0.0117</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>16.4004</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E14" s="1">
-        <v>7721.582</v>
+        <v>7737.02</v>
       </c>
       <c r="F14" s="1">
-        <v>-7721.582</v>
+        <v>-7737.02</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126637.0329</v>
+        <v>126636.4485</v>
       </c>
       <c r="I14" s="1">
-        <v>15808.4939</v>
+        <v>15331.9578</v>
       </c>
       <c r="J14" s="1">
-        <v>142445.5267</v>
+        <v>141968.4064</v>
       </c>
       <c r="K14" s="1">
-        <v>117397.7318</v>
+        <v>117899.2133</v>
       </c>
       <c r="L14" s="1">
-        <v>15.2038</v>
+        <v>15.2383</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126637.0329</v>
+        <v>126636.4485</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0149</v>
+        <v>0.0146</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.312</v>
+        <v>15.3425</v>
       </c>
       <c r="D3" s="1">
-        <v>15.1203</v>
+        <v>15.1511</v>
       </c>
       <c r="E3" s="1">
-        <v>15.1429</v>
+        <v>15.1752</v>
       </c>
       <c r="F3" s="1">
-        <v>15.1721</v>
+        <v>15.2066</v>
       </c>
       <c r="G3" s="1">
-        <v>15.2038</v>
+        <v>15.2383</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1764</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3111</v>
+        <v>0.2989</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3</v>
+        <v>0.2895</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3032</v>
+        <v>0.2923</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3057</v>
+        <v>0.2945</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3079</v>
+        <v>0.2966</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1253</v>
       </c>
       <c r="C5" s="3">
-        <v>0.152</v>
+        <v>0.1524</v>
       </c>
       <c r="D5" s="3">
-        <v>0.146</v>
+        <v>0.1467</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1475</v>
+        <v>0.1481</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1487</v>
+        <v>0.1492</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1497</v>
+        <v>0.1503</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.2454</v>
       </c>
       <c r="C6" s="4">
-        <v>1.9129</v>
+        <v>1.8279</v>
       </c>
       <c r="D6" s="4">
-        <v>1.9156</v>
+        <v>1.8349</v>
       </c>
       <c r="E6" s="4">
-        <v>1.9174</v>
+        <v>1.8361</v>
       </c>
       <c r="F6" s="4">
-        <v>1.9191</v>
+        <v>1.8373</v>
       </c>
       <c r="G6" s="4">
-        <v>1.9209</v>
+        <v>1.8382</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3795</v>
+        <v>0.3695</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3986</v>
+        <v>0.3891</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3968</v>
+        <v>0.3871</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3945</v>
+        <v>0.3845</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3919</v>
+        <v>0.3819</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>13692.4731</v>
+        <v>13664.7431</v>
       </c>
       <c r="D8" s="1">
-        <v>12538.3748</v>
+        <v>12563.4955</v>
       </c>
       <c r="E8" s="1">
-        <v>12756.0392</v>
+        <v>12781.5958</v>
       </c>
       <c r="F8" s="1">
-        <v>12978.6178</v>
+        <v>13004.6202</v>
       </c>
       <c r="G8" s="1">
-        <v>13206.2256</v>
+        <v>13231.1712</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P39_KFSDIV.xlsx
+++ b/output/1Y_P39_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8711</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1252</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.1934</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1176</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>15.3311</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3637</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6447</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.486</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.1958</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.4264</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>17.107</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.8894</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.4004</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8711</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1252</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.1934</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1176</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>15.3311</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3637</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6447</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.486</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.1958</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.4264</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>17.107</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.8894</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.4004</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8711</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1252</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.1934</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1176</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>15.3311</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3637</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6447</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.486</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.1958</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.4264</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>17.107</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.8894</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.4004</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8711</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1252</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.1934</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1176</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>15.3311</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3637</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6447</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.486</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.1958</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.4264</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>17.107</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.8894</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.4004</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8711</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.1252</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.1934</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1176</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>15.3311</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3637</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6447</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.486</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.1958</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>16.4264</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>17.107</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.8894</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.4004</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>14860.5238</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1193</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3229</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2879</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2529</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
